--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_18_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_18_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2850045.978696359</v>
+        <v>2965662.538521222</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12445555.52943491</v>
+        <v>12445534.67060185</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8582794.939831596</v>
+        <v>8582799.424639635</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>212.5689651179051</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83532033605545</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3507887739394</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1599836251355</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1482595335101</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>263.3828147651808</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W2" t="n">
-        <v>263.3828147651808</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="3">
@@ -735,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>17.64190573323497</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>31.98859607943292</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.48524054500679</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,16 +788,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8434583985096</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8545278323952</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -804,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>8.076053701605655</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.3828147651808</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>113.6590929640398</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -899,7 +901,7 @@
         <v>263.7138800015061</v>
       </c>
       <c r="D5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,7 +913,7 @@
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>212.5689651179051</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>212.5689651179051</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="6">
@@ -978,19 +980,19 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>217.8908232810158</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>40.65869449963363</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1063,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>62.06828345299778</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,7 +1107,7 @@
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>263.7138800015061</v>
@@ -1114,10 +1116,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>79.63579206135118</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>32.70181305330838</v>
       </c>
       <c r="D8" t="n">
-        <v>114.1460214218932</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54915978824948</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>301.0334742203003</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>123.4854171348404</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896856</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3343964518635</v>
+        <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83909691614501</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.24979976115219</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,16 +1262,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838588</v>
+        <v>134.3791152901737</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0665623188214</v>
+        <v>192.0697045406876</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8092543744329</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>231.0241379849081</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,16 +1302,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640951</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503844</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>217.3763488184234</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>170.0256098808383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695527</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1528,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>45.31583743121393</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>121.8000472740351</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,13 +1587,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1607,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>132.1190787273712</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>159.4718642460855</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>177.2982898844093</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2078,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2129,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2251,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>81.54417886827382</v>
+        <v>238.764112098793</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2315,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2366,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695523</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T23" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2482,10 +2484,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>237.7897221092684</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>130.5513683573773</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569558</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2719,10 +2721,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>74.53917159609159</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,16 +2766,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>211.3531762811058</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2843,10 +2845,10 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2950,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>100.7197280522379</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -3007,13 +3009,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>133.7457933526584</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3026,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3080,22 +3082,22 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3187,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3196,13 +3198,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>157.7778550769727</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>151.5133592021562</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3275,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695535</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3433,7 +3435,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3472,10 +3474,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3484,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>255.5654575977362</v>
+        <v>146.5235739004488</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3512,10 +3514,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3670,13 +3672,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>115.2707447515124</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>108.5813113004306</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3721,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3916,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,22 +3951,22 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>151.6754862233991</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>151.5133592021562</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>112.7606860319987</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,16 +4143,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856552</v>
@@ -4189,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893667</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>157.4970442233421</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="C2" t="n">
-        <v>157.4970442233421</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="D2" t="n">
-        <v>157.4970442233421</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="E2" t="n">
-        <v>157.4970442233421</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F2" t="n">
-        <v>150.5515434741386</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G2" t="n">
-        <v>137.586573437719</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>137.586573437719</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>21.07062518121446</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.15993901467357</v>
+        <v>49.28269087917624</v>
       </c>
       <c r="K2" t="n">
-        <v>141.9970572935566</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L2" t="n">
-        <v>294.0714735959975</v>
+        <v>294.5174947515912</v>
       </c>
       <c r="M2" t="n">
-        <v>494.9530007795984</v>
+        <v>495.5981834030611</v>
       </c>
       <c r="N2" t="n">
-        <v>703.6988094670337</v>
+        <v>704.5463761991323</v>
       </c>
       <c r="O2" t="n">
-        <v>887.4762960288961</v>
+        <v>888.5149683358418</v>
       </c>
       <c r="P2" t="n">
-        <v>1009.825128108069</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q2" t="n">
-        <v>1053.531259060723</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R2" t="n">
-        <v>1053.531259060723</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>943.2686493383641</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>943.2686493383641</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>689.5835386984548</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>423.5402914608985</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="W2" t="n">
-        <v>157.4970442233421</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="X2" t="n">
-        <v>157.4970442233421</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="Y2" t="n">
-        <v>157.4970442233421</v>
+        <v>522.1002068716687</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>460.3684612013573</v>
+        <v>235.1709686499811</v>
       </c>
       <c r="C3" t="n">
-        <v>285.9154319202303</v>
+        <v>235.1709686499811</v>
       </c>
       <c r="D3" t="n">
-        <v>268.0953251189828</v>
+        <v>235.1709686499811</v>
       </c>
       <c r="E3" t="n">
-        <v>268.0953251189828</v>
+        <v>202.8592554384327</v>
       </c>
       <c r="F3" t="n">
-        <v>121.5607671458678</v>
+        <v>202.8592554384327</v>
       </c>
       <c r="G3" t="n">
-        <v>121.5607671458678</v>
+        <v>65.46256898749989</v>
       </c>
       <c r="H3" t="n">
-        <v>21.07062518121446</v>
+        <v>65.46256898749989</v>
       </c>
       <c r="I3" t="n">
-        <v>21.07062518121446</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.07062518121446</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>95.65665001371063</v>
+        <v>95.78113116957459</v>
       </c>
       <c r="L3" t="n">
-        <v>242.2693060433175</v>
+        <v>242.5255548298712</v>
       </c>
       <c r="M3" t="n">
-        <v>432.716228529904</v>
+        <v>433.126243926395</v>
       </c>
       <c r="N3" t="n">
-        <v>642.6123592779534</v>
+        <v>643.1802110289999</v>
       </c>
       <c r="O3" t="n">
-        <v>903.3613458954824</v>
+        <v>813.1187583557296</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.278016062222</v>
+        <v>930.176358389133</v>
       </c>
       <c r="Q3" t="n">
-        <v>1053.531259060723</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1053.531259060723</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1053.531259060723</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="T3" t="n">
-        <v>856.7196849208144</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="U3" t="n">
-        <v>628.5837982214254</v>
+        <v>678.0833756466777</v>
       </c>
       <c r="V3" t="n">
-        <v>628.5837982214254</v>
+        <v>442.931267414935</v>
       </c>
       <c r="W3" t="n">
-        <v>628.5837982214254</v>
+        <v>442.931267414935</v>
       </c>
       <c r="X3" t="n">
-        <v>628.5837982214254</v>
+        <v>442.931267414935</v>
       </c>
       <c r="Y3" t="n">
-        <v>628.5837982214254</v>
+        <v>235.1709686499811</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.0068081091214</v>
+        <v>29.25474040174237</v>
       </c>
       <c r="C4" t="n">
-        <v>21.07062518121446</v>
+        <v>29.25474040174237</v>
       </c>
       <c r="D4" t="n">
-        <v>21.07062518121446</v>
+        <v>29.25474040174237</v>
       </c>
       <c r="E4" t="n">
-        <v>21.07062518121446</v>
+        <v>29.25474040174237</v>
       </c>
       <c r="F4" t="n">
-        <v>21.07062518121446</v>
+        <v>29.25474040174237</v>
       </c>
       <c r="G4" t="n">
-        <v>21.07062518121446</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>21.07062518121446</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>21.07062518121446</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>21.07062518121446</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.32778054812</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
-        <v>316.5471352504853</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
-        <v>526.6665349030345</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N4" t="n">
-        <v>738.034023167012</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O4" t="n">
-        <v>917.2498138836316</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.079201097374</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>1053.531259060723</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1053.531259060723</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S4" t="n">
-        <v>1053.531259060723</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="T4" t="n">
-        <v>1053.531259060723</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="U4" t="n">
-        <v>787.4880118231667</v>
+        <v>659.6853352735295</v>
       </c>
       <c r="V4" t="n">
-        <v>532.8035236172799</v>
+        <v>659.6853352735295</v>
       </c>
       <c r="W4" t="n">
-        <v>532.8035236172799</v>
+        <v>659.6853352735295</v>
       </c>
       <c r="X4" t="n">
-        <v>304.8139727192626</v>
+        <v>431.6957843755122</v>
       </c>
       <c r="Y4" t="n">
-        <v>190.0068081091214</v>
+        <v>210.9032052319821</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>573.7617370571243</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="C5" t="n">
-        <v>307.3840804899464</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="D5" t="n">
-        <v>41.00642392276842</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="E5" t="n">
-        <v>41.00642392276842</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356495</v>
+        <v>248.7770495552872</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>235.8132367818428</v>
       </c>
       <c r="H5" t="n">
         <v>21.09711040012049</v>
@@ -4607,10 +4609,10 @@
         <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>840.1393936243022</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y5" t="n">
-        <v>840.1393936243022</v>
+        <v>788.4778634388466</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>270.5156819514826</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="C6" t="n">
-        <v>270.5156819514826</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="D6" t="n">
-        <v>121.5812722902314</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="E6" t="n">
-        <v>121.5812722902314</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>121.5812722902314</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>121.5812722902314</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
         <v>21.09711040012049</v>
@@ -4644,19 +4646,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>117.4455628004801</v>
       </c>
       <c r="K6" t="n">
-        <v>100.991389695173</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L6" t="n">
-        <v>247.7358133554696</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M6" t="n">
-        <v>438.3365024519934</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N6" t="n">
-        <v>648.3904695545984</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
         <v>909.4672107560896</v>
@@ -4668,28 +4670,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>906.2192216098642</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T6" t="n">
-        <v>906.2192216098642</v>
+        <v>691.074259448092</v>
       </c>
       <c r="U6" t="n">
-        <v>906.2192216098642</v>
+        <v>462.9384134849055</v>
       </c>
       <c r="V6" t="n">
-        <v>686.1274809219694</v>
+        <v>462.9384134849055</v>
       </c>
       <c r="W6" t="n">
-        <v>686.1274809219694</v>
+        <v>208.7010567567038</v>
       </c>
       <c r="X6" t="n">
-        <v>478.2759807164365</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="Y6" t="n">
-        <v>270.5156819514826</v>
+        <v>167.6316683732355</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.09711040012049</v>
+        <v>99.01678974545371</v>
       </c>
       <c r="C7" t="n">
-        <v>21.09711040012049</v>
+        <v>99.01678974545371</v>
       </c>
       <c r="D7" t="n">
-        <v>21.09711040012049</v>
+        <v>99.01678974545371</v>
       </c>
       <c r="E7" t="n">
-        <v>21.09711040012049</v>
+        <v>99.01678974545371</v>
       </c>
       <c r="F7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="G7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
         <v>739.1822330227046</v>
@@ -4753,22 +4755,22 @@
         <v>848.0684854165359</v>
       </c>
       <c r="T7" t="n">
-        <v>622.5994491745502</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="U7" t="n">
-        <v>356.2217926073722</v>
+        <v>581.6908288493579</v>
       </c>
       <c r="V7" t="n">
-        <v>101.5373044014853</v>
+        <v>327.006340643471</v>
       </c>
       <c r="W7" t="n">
-        <v>21.09711040012049</v>
+        <v>327.006340643471</v>
       </c>
       <c r="X7" t="n">
-        <v>21.09711040012049</v>
+        <v>99.01678974545371</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.09711040012049</v>
+        <v>99.01678974545371</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1363.669246337129</v>
+        <v>1196.757581344059</v>
       </c>
       <c r="C8" t="n">
-        <v>1363.669246337129</v>
+        <v>1163.725446946778</v>
       </c>
       <c r="D8" t="n">
-        <v>1248.370234799863</v>
+        <v>1163.725446946778</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>777.937194348534</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>366.9512895589265</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>355.2854715909977</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.21125520685593</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.21125520685593</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.3702251467184</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.1757437607448</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.186282904597</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1219.647962995233</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1655.591685209592</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2053.905718940605</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2359.356530550209</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2540.564622661177</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2560.562760342797</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2435.83001576215</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2227.077931858423</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926626</v>
+        <v>1973.496753383993</v>
       </c>
       <c r="V8" t="n">
-        <v>2106.577233583055</v>
+        <v>1973.496753383993</v>
       </c>
       <c r="W8" t="n">
-        <v>1753.808578312941</v>
+        <v>1973.496753383993</v>
       </c>
       <c r="X8" t="n">
-        <v>1753.808578312941</v>
+        <v>1973.496753383993</v>
       </c>
       <c r="Y8" t="n">
-        <v>1363.669246337129</v>
+        <v>1583.357421408181</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041138965633</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8510846154363</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9166749541851</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792199487295</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446619756144</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.66559839993894</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.21125520685593</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>113.4887579637195</v>
       </c>
       <c r="K9" t="n">
-        <v>304.7087196946015</v>
+        <v>298.0857543148196</v>
       </c>
       <c r="L9" t="n">
-        <v>599.4122767260733</v>
+        <v>908.2958075666713</v>
       </c>
       <c r="M9" t="n">
-        <v>1233.591260505112</v>
+        <v>1271.362276040974</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.77024428415</v>
+        <v>1658.446678513544</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1990.333488500935</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2237.36884693056</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2560.562760342797</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2560.562760342797</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2424.826280251712</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>2230.816477685361</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2002.72632175159</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.36860661532</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131249887118</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279749681585</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519450916631</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>770.9577966591559</v>
+        <v>665.9728806972876</v>
       </c>
       <c r="C10" t="n">
-        <v>602.021613731249</v>
+        <v>665.9728806972876</v>
       </c>
       <c r="D10" t="n">
-        <v>451.9049743189132</v>
+        <v>515.8562412849518</v>
       </c>
       <c r="E10" t="n">
-        <v>303.9918807365201</v>
+        <v>367.9431477025587</v>
       </c>
       <c r="F10" t="n">
-        <v>157.1019332386097</v>
+        <v>367.9431477025587</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386097</v>
+        <v>199.9560228422494</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386097</v>
+        <v>51.21125520685593</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.21125520685593</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.63468308380206</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.2500215676579</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.3850043368938</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>823.865389990406</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>1122.635640101616</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1382.582027931095</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1581.490387616504</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1635.769145477367</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.156055412625</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1336.515802634459</v>
       </c>
       <c r="T10" t="n">
-        <v>1413.467639269233</v>
+        <v>1113.534501108864</v>
       </c>
       <c r="U10" t="n">
-        <v>1124.349301773071</v>
+        <v>1113.534501108864</v>
       </c>
       <c r="V10" t="n">
-        <v>1124.349301773071</v>
+        <v>893.9624315953049</v>
       </c>
       <c r="W10" t="n">
-        <v>1124.349301773071</v>
+        <v>893.9624315953049</v>
       </c>
       <c r="X10" t="n">
-        <v>1124.349301773071</v>
+        <v>665.9728806972876</v>
       </c>
       <c r="Y10" t="n">
-        <v>952.6062614893956</v>
+        <v>665.9728806972876</v>
       </c>
     </row>
     <row r="11">
@@ -5024,58 +5026,58 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>2223.769289033212</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P12" t="n">
         <v>2283.159972732779</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>996.5276398439756</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400717</v>
+        <v>827.5914569160688</v>
       </c>
       <c r="D13" t="n">
-        <v>363.7369613277359</v>
+        <v>677.474817503733</v>
       </c>
       <c r="E13" t="n">
-        <v>363.7369613277359</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>216.8470138298256</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>1178.176104674215</v>
       </c>
     </row>
     <row r="14">
@@ -5258,10 +5260,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5270,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,19 +5296,19 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M15" t="n">
         <v>1176.533952578166</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>782.841029837709</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>782.841029837709</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253733</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>782.841029837709</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5504,58 +5506,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803938</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961526</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>740.5562989961526</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1368.15426255076</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1920.063992790047</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2943.137787032318</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C19" t="n">
-        <v>2774.201604104411</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D19" t="n">
-        <v>2774.201604104411</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E19" t="n">
-        <v>2626.288510522018</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="F19" t="n">
-        <v>2479.398563024107</v>
+        <v>336.9860575577204</v>
       </c>
       <c r="G19" t="n">
-        <v>2479.398563024107</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>2337.686731866305</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>4444.698266949573</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>4225.096801972514</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>3936.021575316712</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V19" t="n">
-        <v>3681.337087110825</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W19" t="n">
-        <v>3391.919917073865</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X19" t="n">
-        <v>3163.930366175848</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y19" t="n">
-        <v>2943.137787032318</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="20">
@@ -5729,70 +5731,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111692</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075785</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>2233.355914590557</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>2383.002557118212</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>2716.927329289433</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>3212.252935505192</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>3511.325458604698</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>4138.923422159305</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>4690.833152398593</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>4690.833152398593</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>948.5505208511905</v>
+        <v>781.3544215660706</v>
       </c>
       <c r="C22" t="n">
-        <v>779.6143379232836</v>
+        <v>612.4182386381638</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>612.4182386381638</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>464.5051450557706</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>1895.093223067808</v>
+        <v>1955.886674680705</v>
       </c>
       <c r="V22" t="n">
-        <v>1640.408734861921</v>
+        <v>1701.202186474819</v>
       </c>
       <c r="W22" t="n">
-        <v>1350.99156482496</v>
+        <v>1411.785016437858</v>
       </c>
       <c r="X22" t="n">
-        <v>1350.99156482496</v>
+        <v>1183.795465539841</v>
       </c>
       <c r="Y22" t="n">
-        <v>1130.19898568143</v>
+        <v>963.0028863963104</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5980,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332388</v>
@@ -6014,13 +6016,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6029,7 +6031,7 @@
         <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>2233.355914590559</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>2383.002557118214</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>2383.002557118214</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>2878.328163333973</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>3475.706650960525</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>4103.304614515131</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O24" t="n">
-        <v>4103.304614515131</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
-        <v>4420.931837070599</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>4654.193497445482</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3093.254426444653</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C25" t="n">
-        <v>2924.318243516746</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D25" t="n">
-        <v>2774.201604104411</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E25" t="n">
-        <v>2626.288510522018</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F25" t="n">
-        <v>2479.398563024107</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G25" t="n">
-        <v>2479.398563024107</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>2337.686731866305</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398594</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4507.978318053499</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>4507.978318053499</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>4267.786679559288</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>4013.102191353401</v>
+        <v>1556.515784806851</v>
       </c>
       <c r="W25" t="n">
-        <v>3723.685021316441</v>
+        <v>1267.09861476989</v>
       </c>
       <c r="X25" t="n">
-        <v>3495.695470418423</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y25" t="n">
-        <v>3274.902891274893</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,28 +6214,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
@@ -6242,13 +6244,13 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>2233.355914590557</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>2383.002557118212</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>2383.002557118212</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>2383.002557118212</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>2980.381044744764</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>3607.979008299371</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O27" t="n">
-        <v>4159.888738538658</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P27" t="n">
-        <v>4420.931837070597</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q27" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3052.912304341663</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C28" t="n">
-        <v>2883.976121413756</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="D28" t="n">
-        <v>2733.85948200142</v>
+        <v>484.2179484367897</v>
       </c>
       <c r="E28" t="n">
-        <v>2733.85948200142</v>
+        <v>336.3048548543966</v>
       </c>
       <c r="F28" t="n">
-        <v>2586.96953450351</v>
+        <v>336.3048548543966</v>
       </c>
       <c r="G28" t="n">
-        <v>2419.77343521839</v>
+        <v>169.1087555692765</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.77343521839</v>
+        <v>169.1087555692765</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>4227.444557456297</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>4227.444557456297</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>3972.76006925041</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>3683.34289921345</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X28" t="n">
-        <v>3455.353348315432</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y28" t="n">
-        <v>3234.560769171902</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="29">
@@ -6446,25 +6448,25 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,37 +6475,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>542.9134462654469</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1140.291933891999</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N30" t="n">
-        <v>1767.889897446606</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P30" t="n">
         <v>2319.799627685893</v>
@@ -6595,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>633.4413279836774</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C31" t="n">
-        <v>464.5051450557705</v>
+        <v>741.843151638089</v>
       </c>
       <c r="D31" t="n">
-        <v>464.5051450557705</v>
+        <v>591.7265122257533</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578601</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L31" t="n">
         <v>826.1405381797747</v>
@@ -6655,16 +6657,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1553.289092892425</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1263.871922855465</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1035.882371957447</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y31" t="n">
-        <v>815.0897928139171</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>506.2737913123336</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>506.2737913123336</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.652278938886</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N33" t="n">
-        <v>1731.250242493492</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3342.53722908186</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C34" t="n">
-        <v>3173.601046153953</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.484406741617</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159224</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661314</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376194</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650996</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.932614305901</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328842</v>
+        <v>2104.736678450344</v>
       </c>
       <c r="U34" t="n">
-        <v>4221.331149328842</v>
+        <v>1815.661451794542</v>
       </c>
       <c r="V34" t="n">
-        <v>3966.646661122955</v>
+        <v>1560.976963588655</v>
       </c>
       <c r="W34" t="n">
-        <v>3677.229491085995</v>
+        <v>1271.559793551694</v>
       </c>
       <c r="X34" t="n">
-        <v>3524.185693912099</v>
+        <v>1043.570242653677</v>
       </c>
       <c r="Y34" t="n">
-        <v>3524.185693912099</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168619</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111716</v>
@@ -6953,34 +6955,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615668</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334541</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.78353867329</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667834</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694719</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740627</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385793</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2233.35591459056</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>2383.002557118215</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>2716.927329289435</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>2772.332236394373</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>3369.710724020925</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N36" t="n">
-        <v>3997.308687575532</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O36" t="n">
-        <v>3997.308687575532</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P36" t="n">
-        <v>4420.9318370706</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>4654.193497445483</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398595</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301208</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.415660022982</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566167</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334424</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.14661340069</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635736</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>727.9786782557277</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C37" t="n">
-        <v>559.0424953278208</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D37" t="n">
-        <v>408.9258559154851</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E37" t="n">
-        <v>261.012762333092</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>261.012762333092</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7120,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W37" t="n">
-        <v>1358.409273127515</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X37" t="n">
-        <v>1130.419722229497</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y37" t="n">
-        <v>909.6271430859674</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7202,19 +7204,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C39" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D39" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>2878.328163333972</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>3475.706650960524</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>4103.304614515131</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O39" t="n">
-        <v>4655.214344754419</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P39" t="n">
-        <v>4655.214344754419</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S39" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T39" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U39" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V39" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W39" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X39" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y39" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>986.1256051221279</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>817.189422194221</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>667.0727827818853</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>519.1596891994922</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7356,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2337.284991357604</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>2117.683526380545</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>1828.608299724743</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.923811518856</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.506641481895</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.517090583878</v>
+        <v>1388.566649095898</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>1167.774069952368</v>
       </c>
     </row>
     <row r="41">
@@ -7385,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075785</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7442,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M42" t="n">
-        <v>1074.481071167373</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N42" t="n">
-        <v>1702.07903472198</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O42" t="n">
-        <v>2253.988764961267</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C43" t="n">
-        <v>847.644273983533</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711973</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
         <v>826.1405381797747</v>
@@ -7597,22 +7599,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2043.85498364575</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1754.779756989948</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V43" t="n">
-        <v>1754.779756989948</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W43" t="n">
-        <v>1465.362586952987</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X43" t="n">
-        <v>1237.37303605497</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="Y43" t="n">
-        <v>1016.58045691144</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7640,55 +7642,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615667</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.71794833454</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673289</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667833</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694718</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740626</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385792</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I45" t="n">
-        <v>2233.355914590559</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J45" t="n">
-        <v>2383.002557118214</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K45" t="n">
-        <v>2716.927329289435</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="L45" t="n">
-        <v>3212.252935505193</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="M45" t="n">
-        <v>3809.631423131745</v>
+        <v>3312.538429711218</v>
       </c>
       <c r="N45" t="n">
-        <v>4138.923422159307</v>
+        <v>3715.300272664238</v>
       </c>
       <c r="O45" t="n">
-        <v>4690.833152398594</v>
+        <v>4267.210002903525</v>
       </c>
       <c r="P45" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q45" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301207</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.415660022981</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566166</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334423</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606222</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400689</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635735</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263526</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356194</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232836</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782958</v>
@@ -7837,19 +7839,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1433.359422267661</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>1212.566843124131</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.59164343877291</v>
+        <v>60.51967546761156</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.109135423079437</v>
+        <v>2.051220519418294</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8070,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>91.87356436301286</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5.025207453910511</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127285</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8143,7 +8145,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>177.6719212588922</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
         <v>171.8177168444618</v>
@@ -8292,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>99.37288961069065</v>
       </c>
       <c r="K6" t="n">
-        <v>5.262887399594234</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>92.05878169167806</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8532,16 +8534,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>6.454437538929454</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>318.8626967862315</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179981</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.3877325071647</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.98618304348474</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10127,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>-2.046363078989089e-12</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10601,7 +10603,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -23416,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>101.1181252153552</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>43.72409101823372</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>86.46557462472362</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>6.052274046183328</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>3.727996117235335</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24139,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24178,10 +24180,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>204.6402955209703</v>
+        <v>47.42036229045112</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24370,10 +24372,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>48.39475227997571</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>121.5862749664507</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24607,10 +24609,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>6.726664722473927</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,16 +24654,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>6.052274046182418</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>45.71423459433126</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24895,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>118.3918499711696</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,13 +25086,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>59.62759525031552</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>74.19629618688091</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25321,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25360,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>30.95754073885479</v>
+        <v>139.9994244361422</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25558,13 +25560,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>30.15030327141889</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>72.44497470121402</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25609,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,22 +25839,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>65.72996410388913</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>67.07129414993855</v>
       </c>
     </row>
     <row r="44">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>67.07129414993855</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,16 +26031,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26077,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>126.7126101431581</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>755028.752913562</v>
+        <v>755042.1864726937</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>760612.0537500043</v>
+        <v>760602.3747808228</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>737410.9310912272</v>
+        <v>737410.9310912271</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>737410.9310912271</v>
+        <v>737410.9310912272</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>737410.9310912271</v>
+        <v>737410.9310912272</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>737410.9310912272</v>
+        <v>737410.9310912271</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>697885.504384641</v>
       </c>
       <c r="C2" t="n">
+        <v>697885.5043846408</v>
+      </c>
+      <c r="D2" t="n">
         <v>697885.504384641</v>
       </c>
-      <c r="D2" t="n">
-        <v>697885.5043846407</v>
-      </c>
       <c r="E2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="F2" t="n">
         <v>686074.6097365053</v>
       </c>
-      <c r="F2" t="n">
-        <v>686074.6097365059</v>
-      </c>
       <c r="G2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365053</v>
       </c>
       <c r="H2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="I2" t="n">
         <v>686074.6097365053</v>
       </c>
-      <c r="I2" t="n">
-        <v>686074.6097365058</v>
-      </c>
       <c r="J2" t="n">
-        <v>686074.6097365051</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="K2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365052</v>
       </c>
       <c r="L2" t="n">
         <v>686074.6097365058</v>
       </c>
       <c r="M2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365053</v>
       </c>
       <c r="N2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365055</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679702.4124909298</v>
+        <v>680087.9805911928</v>
       </c>
       <c r="C3" t="n">
-        <v>366.4703680936445</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059436</v>
+        <v>390680.0076580822</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507909.2320606902</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>68912.53318642075</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>85.20559774263963</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.6461375697</v>
+        <v>95270.23779101855</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289269</v>
+        <v>132717.9756954682</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>252222.594432086</v>
+        <v>252122.0652631775</v>
       </c>
       <c r="C4" t="n">
         <v>252122.0652631775</v>
       </c>
       <c r="D4" t="n">
-        <v>141542.8205525801</v>
+        <v>141668.8507447201</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26433,25 +26435,25 @@
         <v>11776.97621680582</v>
       </c>
       <c r="H4" t="n">
+        <v>11776.97621680582</v>
+      </c>
+      <c r="I4" t="n">
         <v>11776.97621680578</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>11776.97621680582</v>
       </c>
-      <c r="J4" t="n">
-        <v>11776.97621680574</v>
-      </c>
       <c r="K4" t="n">
+        <v>11776.97621680575</v>
+      </c>
+      <c r="L4" t="n">
         <v>11776.97621680582</v>
       </c>
-      <c r="L4" t="n">
-        <v>11776.97621680577</v>
-      </c>
       <c r="M4" t="n">
-        <v>11776.97621680583</v>
+        <v>11776.97621680578</v>
       </c>
       <c r="N4" t="n">
-        <v>11776.97621680579</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="O4" t="n">
         <v>11776.97621680582</v>
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63021.46164557691</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92902.86757567922</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-297060.9641839518</v>
+        <v>-297372.3446739956</v>
       </c>
       <c r="C6" t="n">
-        <v>382349.1655491036</v>
+        <v>382715.6359171972</v>
       </c>
       <c r="D6" t="n">
-        <v>72276.54758627238</v>
+        <v>72633.77840615941</v>
       </c>
       <c r="E6" t="n">
-        <v>65689.66207124636</v>
+        <v>65265.87163510257</v>
       </c>
       <c r="F6" t="n">
-        <v>573175.103695793</v>
+        <v>573175.1036957924</v>
       </c>
       <c r="G6" t="n">
+        <v>573175.1036957924</v>
+      </c>
+      <c r="H6" t="n">
+        <v>573175.1036957928</v>
+      </c>
+      <c r="I6" t="n">
+        <v>573175.1036957924</v>
+      </c>
+      <c r="J6" t="n">
+        <v>504175.9492766783</v>
+      </c>
+      <c r="K6" t="n">
+        <v>573175.1036957925</v>
+      </c>
+      <c r="L6" t="n">
+        <v>477904.8659047742</v>
+      </c>
+      <c r="M6" t="n">
+        <v>440457.1280003242</v>
+      </c>
+      <c r="N6" t="n">
         <v>573175.1036957927</v>
       </c>
-      <c r="H6" t="n">
-        <v>573175.1036957925</v>
-      </c>
-      <c r="I6" t="n">
-        <v>573175.1036957928</v>
-      </c>
-      <c r="J6" t="n">
-        <v>504262.5705093715</v>
-      </c>
-      <c r="K6" t="n">
-        <v>573089.8980980502</v>
-      </c>
-      <c r="L6" t="n">
-        <v>477792.4575582232</v>
-      </c>
-      <c r="M6" t="n">
-        <v>440567.8099668656</v>
-      </c>
-      <c r="N6" t="n">
-        <v>573175.1036957928</v>
-      </c>
       <c r="O6" t="n">
-        <v>573175.1036957927</v>
+        <v>573175.1036957926</v>
       </c>
       <c r="P6" t="n">
-        <v>573175.1036957925</v>
+        <v>573175.1036957926</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960516</v>
+        <v>614.0550137694781</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>933.7024595627854</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,40 +26789,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651808</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.1406900856991</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="H4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26829,7 +26831,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26914,10 +26916,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960516</v>
+        <v>614.0550137694781</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2849904734266602</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480611</v>
+        <v>319.6474457933072</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>434.2730407788883</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651808</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3310652363253439</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.8709520985326</v>
+        <v>376.4268100841931</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.5675980139492</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651802</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363255713</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985328</v>
+        <v>376.4268100841932</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996101</v>
+        <v>532.5675980139492</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651808</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363253439</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985326</v>
+        <v>376.4268100841931</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.5675980139492</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,10 +27384,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>169.3614049543567</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.2053659305182</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>43.6338169928333</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2947308627104</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>64.36944370495411</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W2" t="n">
-        <v>85.85815395223221</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="3">
@@ -27455,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>129.8031598314038</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>125.656484375968</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0233325848003</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9429094280754</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,19 +27505,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.190584626427</v>
+        <v>18.1525249552777</v>
       </c>
       <c r="S3" t="n">
-        <v>147.161321588189</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27524,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,16 +27551,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8841809557937</v>
+        <v>158.8076133369409</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3867285273816</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1660284180232</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J4" t="n">
-        <v>15.1085330482565</v>
+        <v>15.07219909888211</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5277104718864</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7281204196193</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2165417078037</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>22.87584376934655</v>
+        <v>22.54475050117135</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>104.925560388055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,7 +27621,7 @@
         <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96916161917682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,7 +27633,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>314.193632629268</v>
+        <v>101.6246675113629</v>
       </c>
       <c r="I5" t="n">
         <v>115.3066195468971</v>
@@ -27679,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>157.1621355605639</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27698,19 +27700,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
         <v>43.9218040015056</v>
@@ -27740,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>14.90976386840944</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>165.1142907038438</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27783,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>83.35276456993347</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27795,7 +27797,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27825,19 +27827,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>22.54475050117134</v>
+        <v>22.54475050117135</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>206.8872062752398</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>332.5710787176992</v>
       </c>
       <c r="D8" t="n">
-        <v>240.5370201987897</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425464997</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,16 +27906,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27989,7 +27991,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.776449164517174</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28008,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.8162497430993</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>34.76129450540463</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>48.55904347125644</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29086,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.467417179079602</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26943618524898</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.12510079646647</v>
+        <v>95.16927002350879</v>
       </c>
       <c r="J2" t="n">
-        <v>209.4189488029076</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8647179933473</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3769364876047</v>
+        <v>389.5577350167917</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2568667460616</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2674158061215</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.7320362316487</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P2" t="n">
-        <v>354.817674623121</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4532968973326</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R2" t="n">
-        <v>154.9938943753592</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.2262689682765</v>
+        <v>56.25237638702306</v>
       </c>
       <c r="T2" t="n">
-        <v>10.80111870142096</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1973933743263682</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320184578410375</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75020369148968</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.45372342333967</v>
+        <v>45.47482884990947</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7284912435873</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>213.1808579970824</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L3" t="n">
-        <v>286.647971728972</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
-        <v>334.5046626963481</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3580057682317</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O3" t="n">
-        <v>314.1054948466124</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.0973516439953</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5204033774367</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>81.96724952621614</v>
+        <v>82.00530919736543</v>
       </c>
       <c r="S3" t="n">
-        <v>24.52184951564884</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T3" t="n">
-        <v>5.321270296311993</v>
+        <v>5.323741109944813</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08685424857962998</v>
+        <v>0.0868945774202092</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.106798402665011</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H4" t="n">
-        <v>9.840443980058014</v>
+        <v>9.845013171582787</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28444650923507</v>
+        <v>33.29990140244974</v>
       </c>
       <c r="J4" t="n">
-        <v>78.25064706841627</v>
+        <v>78.28698101779067</v>
       </c>
       <c r="K4" t="n">
-        <v>128.5898507823531</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5507370653054</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4956805195707</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N4" t="n">
-        <v>169.3703410187286</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.4409233148691</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>133.8622359005027</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.67927351770379</v>
+        <v>92.7223070791912</v>
       </c>
       <c r="R4" t="n">
-        <v>49.76568090528312</v>
+        <v>49.78878849350554</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28847761735296</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.729047720477773</v>
+        <v>4.73124354871565</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06037082196354612</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.753577726885567</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.44132789546682</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7098053157559</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.5802175972541</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.4691627763203</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.3427171354946</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.0954050359958</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>669.7602577525095</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.435619230791</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.7691690983035</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.344166754214</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.7856768864757</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.53465245140494</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43128649944158</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3002862181508453</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.008341139436935</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.39634732035145</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.14683309026289</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>189.7441951079431</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.3030514502177</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.0654741571292</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>508.867840461718</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.3360580152228</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>477.8354464519096</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.50507249476</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.3629847463708</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.6933209204792</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.30405581366409</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.095024154133958</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321277065419036</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.683725746752564</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>14.96985254840008</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.63422518415893</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0394102954062</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.6183185772524</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.324098749013</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>263.9316641023132</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.6559590462357</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>237.9869810046261</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>203.6389757708736</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>140.9890713939806</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.70643221307435</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.34274778658785</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.19410091794277</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09183958618650358</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>193.964997009853</v>
+        <v>346.9084613860368</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162557</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32078,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>263.7590256391492</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>295.9743940159484</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>537.7477759959929</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236522</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32552,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>444.2274915982877</v>
+        <v>208.6096528357816</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,13 +32785,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
@@ -32798,19 +32800,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>359.7096985496632</v>
       </c>
       <c r="O24" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>454.8099857531864</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -33020,7 +33022,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,7 +33031,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
@@ -33041,13 +33043,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>397.6543049213394</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>177.7456072667729</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33257,28 +33259,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>440.316328560036</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>414.644818552487</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
         <v>375.5996128485291</v>
@@ -33442,7 +33444,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S32" t="n">
         <v>125.3175546292901</v>
@@ -33497,31 +33499,31 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>403.3065760821439</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>526.2989357561996</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33740,22 +33742,22 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>194.5189324111243</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>407.217739120397</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33907,7 +33909,7 @@
         <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P38" t="n">
         <v>790.8204499236508</v>
@@ -33968,7 +33970,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33983,16 +33985,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>139.5228722182826</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>175.9603676659962</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34132,7 +34134,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817553</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
         <v>867.8464071162563</v>
@@ -34205,19 +34207,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
@@ -34226,13 +34228,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>399.0581126127089</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34442,7 +34444,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34451,19 +34453,19 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>463.9598929192543</v>
+        <v>538.1718564803235</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.37304427622132</v>
+        <v>28.47028331217703</v>
       </c>
       <c r="K2" t="n">
-        <v>93.77486694836671</v>
+        <v>93.92060305664461</v>
       </c>
       <c r="L2" t="n">
-        <v>153.6105215176175</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>202.9106335187888</v>
+        <v>203.1118067186564</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8543522095306</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.633824809962</v>
+        <v>185.8268607441511</v>
       </c>
       <c r="P2" t="n">
-        <v>123.5846788678514</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.14760702288314</v>
+        <v>44.27132869117352</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.3394190227234</v>
+        <v>75.43840481763041</v>
       </c>
       <c r="L3" t="n">
-        <v>148.0935919490979</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>192.3706287743298</v>
+        <v>192.5259485823472</v>
       </c>
       <c r="N3" t="n">
-        <v>212.0162936848984</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O3" t="n">
-        <v>263.3828147651808</v>
+        <v>171.655098309828</v>
       </c>
       <c r="P3" t="n">
-        <v>123.1481516835755</v>
+        <v>118.2400000337409</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.53862929141516</v>
+        <v>125.9385470877692</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3203589564702</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
-        <v>192.1407623256215</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>212.2418178308578</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
-        <v>213.5025133979572</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0260512289087</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.1407951653962</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.517230266009406</v>
+        <v>6.560263827496811</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35012,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="K6" t="n">
-        <v>80.7012922172247</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
         <v>148.2266905659562</v>
@@ -35027,7 +35029,7 @@
         <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>263.7138800015061</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
         <v>118.240000033741</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.5343130705679</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.3793117313397</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.5763021655073</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>428.7491718087231</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.3471941559185</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.3374078091042</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.5361733430339</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.0384768797645</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.20013907234355</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>62.90656844127636</v>
       </c>
       <c r="K9" t="n">
-        <v>193.0419337824143</v>
+        <v>186.4616124758587</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>616.3737911634865</v>
       </c>
       <c r="M9" t="n">
-        <v>640.5848321000387</v>
+        <v>366.7338065396997</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000387</v>
+        <v>390.9943459318895</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.2392020074652</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.5306650804297</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.4584983961984</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.68023017873347</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.3488267513695</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>277.9141240093292</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.5155410641538</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.7881314254643</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.5721089186658</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9175350357671</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.82702814228621</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,16 +35503,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>59.99058959552271</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462684</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35735,19 +35737,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>132.4173135558158</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>161.9999866016181</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>403.7733685816627</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396396</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683826</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,22 +36205,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>302.0934576762694</v>
+        <v>66.47561891376326</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
@@ -36446,19 +36448,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>320.8355783388562</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36610,7 +36612,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924729</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,7 +36679,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36689,13 +36691,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>263.6798975070091</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36847,7 +36849,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683793</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924729</v>
@@ -36905,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>302.474889585677</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>272.5107846304687</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625076</v>
@@ -37090,7 +37092,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>265.4651371077849</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>394.9572236728663</v>
       </c>
       <c r="O33" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37321,13 +37323,13 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,22 +37390,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>55.96455263125009</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>265.0837051983787</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789214</v>
@@ -37555,7 +37557,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683813</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37631,16 +37633,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>8.181160134949316</v>
       </c>
       <c r="O39" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>35.97859357997467</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,7 +37782,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367747</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
         <v>632.079992146269</v>
@@ -37853,19 +37855,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
@@ -37874,13 +37876,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>265.0837051983787</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,19 +38101,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>332.618180835921</v>
+        <v>406.8301443969902</v>
       </c>
       <c r="O45" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_18_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_18_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2965662.538521222</v>
+        <v>2961358.198711353</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>212.5689651179051</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>161.520684615001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
     </row>
     <row r="3">
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>31.98859607943292</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>92.17472761637525</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150561</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>140.3691758142039</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>8.076053701605655</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>219.4450108596164</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>212.5689651179051</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>109.3170492634408</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>40.65869449963363</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>62.06828345299778</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>182.0466682725277</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>32.70181305330838</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54915978824948</v>
+        <v>98.97272661305203</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203003</v>
+        <v>301.0334742203005</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465062</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348404</v>
+        <v>123.4854171348408</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896856</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614501</v>
+        <v>92.8390969161451</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115219</v>
+        <v>18.47335059661515</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,16 +1262,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901737</v>
+        <v>134.3791152901739</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0697045406876</v>
+        <v>192.0697045406877</v>
       </c>
       <c r="U9" t="n">
         <v>225.8092543744329</v>
       </c>
       <c r="V9" t="n">
-        <v>231.0241379849081</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640951</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503844</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>217.3763488184234</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>238.9743682519691</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722608</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695527</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>45.31583743121393</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,13 +1587,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>275.6685478670739</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>102.1557845699813</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>159.4718642460855</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2247,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2292,10 +2292,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>238.764112098793</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2478,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>130.5513683573773</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569558</v>
+        <v>83.70251495695437</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>74.53917159609159</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2845,10 +2845,10 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>100.7197280522379</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>120.6127326838975</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3189,10 +3189,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>3.006892987834117</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>157.7778550769727</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3319,10 +3319,10 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3432,10 +3432,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>115.4764219077138</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>146.5235739004488</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>115.2707447515124</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>148.2350264383957</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3720,10 +3720,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>151.5133592021562</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>91.87204320893667</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>522.1002068716687</v>
+        <v>307.6661507067968</v>
       </c>
       <c r="C2" t="n">
-        <v>522.1002068716687</v>
+        <v>307.6661507067968</v>
       </c>
       <c r="D2" t="n">
-        <v>255.7225503044907</v>
+        <v>307.6661507067968</v>
       </c>
       <c r="E2" t="n">
-        <v>41.00642392276842</v>
+        <v>307.6661507067968</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356495</v>
+        <v>300.7206499575934</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917624</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052547</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515912</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030611</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991323</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358418</v>
+        <v>888.5149683358414</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4360,22 +4360,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="V2" t="n">
-        <v>788.4778634388466</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="W2" t="n">
-        <v>788.4778634388466</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="X2" t="n">
-        <v>788.4778634388466</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="Y2" t="n">
-        <v>522.1002068716687</v>
+        <v>574.0438072739748</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>235.1709686499811</v>
+        <v>522.8589224280242</v>
       </c>
       <c r="C3" t="n">
-        <v>235.1709686499811</v>
+        <v>522.8589224280242</v>
       </c>
       <c r="D3" t="n">
-        <v>235.1709686499811</v>
+        <v>373.924512766773</v>
       </c>
       <c r="E3" t="n">
-        <v>202.8592554384327</v>
+        <v>214.6870577613175</v>
       </c>
       <c r="F3" t="n">
-        <v>202.8592554384327</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="G3" t="n">
-        <v>65.46256898749989</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749989</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957459</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298712</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M3" t="n">
-        <v>433.126243926395</v>
+        <v>478.4519222278689</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110289999</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557296</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
-        <v>930.176358389133</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>906.2192216098642</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="T3" t="n">
-        <v>906.2192216098642</v>
+        <v>691.0742594480922</v>
       </c>
       <c r="U3" t="n">
-        <v>678.0833756466777</v>
+        <v>691.0742594480922</v>
       </c>
       <c r="V3" t="n">
-        <v>442.931267414935</v>
+        <v>691.0742594480922</v>
       </c>
       <c r="W3" t="n">
-        <v>442.931267414935</v>
+        <v>691.0742594480922</v>
       </c>
       <c r="X3" t="n">
-        <v>442.931267414935</v>
+        <v>691.0742594480922</v>
       </c>
       <c r="Y3" t="n">
-        <v>235.1709686499811</v>
+        <v>691.0742594480922</v>
       </c>
     </row>
     <row r="4">
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29.25474040174237</v>
+        <v>313.0007960894299</v>
       </c>
       <c r="C4" t="n">
-        <v>29.25474040174237</v>
+        <v>171.2137498124562</v>
       </c>
       <c r="D4" t="n">
-        <v>29.25474040174237</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E4" t="n">
-        <v>29.25474040174237</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F4" t="n">
-        <v>29.25474040174237</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
         <v>918.4699372075543</v>
@@ -4512,28 +4512,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>659.6853352735295</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V4" t="n">
-        <v>659.6853352735295</v>
+        <v>800.1710318001379</v>
       </c>
       <c r="W4" t="n">
-        <v>659.6853352735295</v>
+        <v>533.79337523296</v>
       </c>
       <c r="X4" t="n">
-        <v>431.6957843755122</v>
+        <v>533.79337523296</v>
       </c>
       <c r="Y4" t="n">
-        <v>210.9032052319821</v>
+        <v>313.0007960894299</v>
       </c>
     </row>
     <row r="5">
@@ -4546,43 +4546,43 @@
         <v>522.1002068716687</v>
       </c>
       <c r="C5" t="n">
-        <v>255.7225503044907</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="D5" t="n">
-        <v>255.7225503044907</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="E5" t="n">
         <v>255.7225503044907</v>
       </c>
       <c r="F5" t="n">
-        <v>248.7770495552872</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>235.8132367818428</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917587</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4603,16 +4603,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006025</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="X5" t="n">
-        <v>1054.855520006025</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="Y5" t="n">
-        <v>788.4778634388466</v>
+        <v>522.1002068716687</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>167.6316683732355</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C6" t="n">
-        <v>167.6316683732355</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D6" t="n">
-        <v>167.6316683732355</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E6" t="n">
-        <v>167.6316683732355</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>117.4455628004801</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699343</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L6" t="n">
-        <v>338.874007230231</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267547</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
@@ -4673,25 +4673,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>887.8833378166544</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>691.074259448092</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>462.9384134849055</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>462.9384134849055</v>
+        <v>801.3675279810723</v>
       </c>
       <c r="W6" t="n">
-        <v>208.7010567567038</v>
+        <v>547.1301712528707</v>
       </c>
       <c r="X6" t="n">
-        <v>167.6316683732355</v>
+        <v>339.2786710473379</v>
       </c>
       <c r="Y6" t="n">
-        <v>167.6316683732355</v>
+        <v>131.518372282384</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.01678974545371</v>
+        <v>650.177417354891</v>
       </c>
       <c r="C7" t="n">
-        <v>99.01678974545371</v>
+        <v>481.2412344269841</v>
       </c>
       <c r="D7" t="n">
-        <v>99.01678974545371</v>
+        <v>331.1245950146483</v>
       </c>
       <c r="E7" t="n">
-        <v>99.01678974545371</v>
+        <v>183.2115014322552</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4752,25 +4752,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>848.0684854165359</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>848.0684854165359</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>581.6908288493579</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>327.006340643471</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>327.006340643471</v>
+        <v>870.9699964984211</v>
       </c>
       <c r="X7" t="n">
-        <v>99.01678974545371</v>
+        <v>870.9699964984211</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.01678974545371</v>
+        <v>650.177417354891</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1196.757581344059</v>
+        <v>2045.690683786317</v>
       </c>
       <c r="C8" t="n">
-        <v>1163.725446946778</v>
+        <v>1676.728166845905</v>
       </c>
       <c r="D8" t="n">
-        <v>1163.725446946778</v>
+        <v>1318.462468239155</v>
       </c>
       <c r="E8" t="n">
-        <v>777.937194348534</v>
+        <v>932.6742156409107</v>
       </c>
       <c r="F8" t="n">
-        <v>366.9512895589265</v>
+        <v>521.6883108513032</v>
       </c>
       <c r="G8" t="n">
-        <v>355.2854715909977</v>
+        <v>421.7158597270082</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685593</v>
+        <v>117.6416433428663</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685593</v>
+        <v>51.21125520685553</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467184</v>
+        <v>187.3702251467166</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607448</v>
+        <v>442.1757437607409</v>
       </c>
       <c r="L8" t="n">
-        <v>795.186282904597</v>
+        <v>795.1862829045904</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995233</v>
+        <v>1219.647962995223</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209592</v>
+        <v>1655.59168520958</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940605</v>
+        <v>2053.90571894059</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550209</v>
+        <v>2359.356530550191</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661177</v>
+        <v>2540.564622661157</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342797</v>
+        <v>2560.562760342776</v>
       </c>
       <c r="S8" t="n">
-        <v>2435.83001576215</v>
+        <v>2435.830015762129</v>
       </c>
       <c r="T8" t="n">
-        <v>2227.077931858423</v>
+        <v>2435.830015762129</v>
       </c>
       <c r="U8" t="n">
-        <v>1973.496753383993</v>
+        <v>2435.830015762129</v>
       </c>
       <c r="V8" t="n">
-        <v>1973.496753383993</v>
+        <v>2435.830015762129</v>
       </c>
       <c r="W8" t="n">
-        <v>1973.496753383993</v>
+        <v>2435.830015762129</v>
       </c>
       <c r="X8" t="n">
-        <v>1973.496753383993</v>
+        <v>2435.830015762129</v>
       </c>
       <c r="Y8" t="n">
-        <v>1583.357421408181</v>
+        <v>2045.690683786317</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965633</v>
+        <v>929.5097208010709</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154363</v>
+        <v>755.0566915199439</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541851</v>
+        <v>606.1222818586926</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487295</v>
+        <v>446.8848268532371</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446619756144</v>
+        <v>300.3502688801221</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4424639718026</v>
+        <v>163.6480708763103</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993894</v>
+        <v>69.87120530444659</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685593</v>
+        <v>51.21125520685553</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637195</v>
+        <v>238.318882950723</v>
       </c>
       <c r="K9" t="n">
-        <v>298.0857543148196</v>
+        <v>613.7598241331793</v>
       </c>
       <c r="L9" t="n">
-        <v>908.2958075666713</v>
+        <v>908.29580756666</v>
       </c>
       <c r="M9" t="n">
-        <v>1271.362276040974</v>
+        <v>1271.36227604096</v>
       </c>
       <c r="N9" t="n">
-        <v>1658.446678513544</v>
+        <v>1658.446678513529</v>
       </c>
       <c r="O9" t="n">
-        <v>1990.333488500935</v>
+        <v>1990.333488500917</v>
       </c>
       <c r="P9" t="n">
-        <v>2237.36884693056</v>
+        <v>2237.368846930541</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342797</v>
+        <v>2560.562760342776</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342797</v>
+        <v>2560.562760342776</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251712</v>
+        <v>2424.826280251692</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685361</v>
+        <v>2230.81647768534</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.72632175159</v>
+        <v>2002.72632175157</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.36860661532</v>
+        <v>1767.574213519827</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131249887118</v>
+        <v>1513.336856791626</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279749681585</v>
+        <v>1305.485356586093</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519450916631</v>
+        <v>1097.725057821139</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.9728806972876</v>
+        <v>220.1474381347624</v>
       </c>
       <c r="C10" t="n">
-        <v>665.9728806972876</v>
+        <v>51.21125520685553</v>
       </c>
       <c r="D10" t="n">
-        <v>515.8562412849518</v>
+        <v>51.21125520685553</v>
       </c>
       <c r="E10" t="n">
-        <v>367.9431477025587</v>
+        <v>51.21125520685553</v>
       </c>
       <c r="F10" t="n">
-        <v>367.9431477025587</v>
+        <v>51.21125520685553</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9560228422494</v>
+        <v>51.21125520685553</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685593</v>
+        <v>51.21125520685553</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685593</v>
+        <v>51.21125520685553</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380206</v>
+        <v>76.63468308380112</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676579</v>
+        <v>248.2500215676561</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368938</v>
+        <v>523.3850043368908</v>
       </c>
       <c r="M10" t="n">
-        <v>823.865389990406</v>
+        <v>823.8653899904018</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101616</v>
+        <v>1122.63564010161</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931095</v>
+        <v>1382.582027931088</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616504</v>
+        <v>1581.490387616497</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477367</v>
+        <v>1635.769145477359</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.156055412625</v>
+        <v>1635.769145477359</v>
       </c>
       <c r="S10" t="n">
-        <v>1336.515802634459</v>
+        <v>1635.769145477359</v>
       </c>
       <c r="T10" t="n">
-        <v>1113.534501108864</v>
+        <v>1635.769145477359</v>
       </c>
       <c r="U10" t="n">
-        <v>1113.534501108864</v>
+        <v>1346.650771972001</v>
       </c>
       <c r="V10" t="n">
-        <v>893.9624315953049</v>
+        <v>1091.966283766114</v>
       </c>
       <c r="W10" t="n">
-        <v>893.9624315953049</v>
+        <v>850.5780330065496</v>
       </c>
       <c r="X10" t="n">
-        <v>665.9728806972876</v>
+        <v>622.5884821085323</v>
       </c>
       <c r="Y10" t="n">
-        <v>665.9728806972876</v>
+        <v>401.7959029650021</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5068,25 +5068,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>1520.445529061503</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O12" t="n">
-        <v>2072.35525930079</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>996.5276398439756</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>827.5914569160688</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>677.474817503733</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854706</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817745</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X13" t="n">
-        <v>1398.968683817745</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>1178.176104674215</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5272,25 +5272,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5299,28 +5299,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803937</v>
@@ -5363,22 +5363,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2356.04164637206</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D16" t="n">
-        <v>241.729756630365</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5506,31 +5506,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,19 +5591,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
         <v>2001.151557821488</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>633.9926444679666</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>483.8760050556308</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>483.8760050556308</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>336.9860575577204</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5706,19 +5706,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5746,46 +5746,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>781.3544215660706</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>612.4182386381638</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4182386381638</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557706</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578603</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5940,22 +5940,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1955.886674680705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1701.202186474819</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1411.785016437858</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1183.795465539841</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>963.0028863963104</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5983,16 +5983,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332388</v>
@@ -6004,16 +6004,16 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
         <v>4606.285157492578</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>636.6680198981028</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>467.7318369701959</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1556.515784806851</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1267.09861476989</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1039.109063871873</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>818.3164847283425</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,43 +6214,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075816</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.2707707770323</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>634.3345878491255</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>484.2179484367897</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>336.3048548543966</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>336.3048548543966</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>169.1087555692765</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>169.1087555692765</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.9192356072721</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6448,64 +6448,64 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,7 +6536,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
         <v>95.58405025273903</v>
@@ -6548,19 +6548,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M30" t="n">
-        <v>1344.266747951537</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>741.843151638089</v>
+        <v>801.6605733532803</v>
       </c>
       <c r="C31" t="n">
-        <v>741.843151638089</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D31" t="n">
-        <v>591.7265122257533</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1144.284195611859</v>
+        <v>1022.45315249681</v>
       </c>
       <c r="Y31" t="n">
-        <v>923.4916164683287</v>
+        <v>801.6605733532803</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,31 +6697,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>641.1291986799072</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C34" t="n">
-        <v>641.1291986799072</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D34" t="n">
-        <v>491.0125592675714</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E34" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2443.925817935984</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2261.070983590888</v>
       </c>
       <c r="T34" t="n">
-        <v>2104.736678450344</v>
+        <v>2041.469518613829</v>
       </c>
       <c r="U34" t="n">
-        <v>1815.661451794542</v>
+        <v>1752.394291958027</v>
       </c>
       <c r="V34" t="n">
-        <v>1560.976963588655</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W34" t="n">
-        <v>1271.559793551694</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X34" t="n">
-        <v>1043.570242653677</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y34" t="n">
-        <v>822.7776635101469</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="35">
@@ -6919,13 +6919,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,10 +6949,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
         <v>261.0127623330919</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487568</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V37" t="n">
-        <v>1653.302830625878</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W37" t="n">
-        <v>1505.299220625425</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X37" t="n">
-        <v>1277.309669727408</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y37" t="n">
-        <v>1056.517090583878</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="38">
@@ -7162,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,10 +7186,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>986.1256051221279</v>
+        <v>801.6605733532803</v>
       </c>
       <c r="C40" t="n">
-        <v>817.189422194221</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D40" t="n">
-        <v>667.0727827818853</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E40" t="n">
-        <v>519.1596891994922</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2230.185029894889</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>2010.58356491783</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1721.508338262028</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1721.508338262028</v>
       </c>
       <c r="W40" t="n">
-        <v>1616.556199993915</v>
+        <v>1432.091168225067</v>
       </c>
       <c r="X40" t="n">
-        <v>1388.566649095898</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="Y40" t="n">
-        <v>1167.774069952368</v>
+        <v>983.30903818352</v>
       </c>
     </row>
     <row r="41">
@@ -7408,22 +7408,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7432,7 +7432,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7453,7 +7453,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1433.359422267661</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7648,22 +7648,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>2715.159942084666</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>2715.159942084666</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>3312.538429711218</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>3715.300272664238</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O45" t="n">
-        <v>4267.210002903525</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>641.8461362382112</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>472.9099533103043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>322.7933138979686</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>322.7933138979686</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>175.9033664000582</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>823.4946010684509</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761156</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418294</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8066,10 +8066,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>45.78351343583194</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>51.53815565544051</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127285</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>99.37288961069065</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>97.32166909127245</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>192.7716614458158</v>
       </c>
       <c r="L9" t="n">
-        <v>318.8626967862315</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348474</v>
+        <v>20.98618304348531</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10129,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>-2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10603,7 +10603,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>-1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>101.1181252153552</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>10.85445046951713</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>46.45968844823102</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>6.052274046183328</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24135,13 +24135,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24180,10 +24180,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>47.42036229045112</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>121.5862749664507</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>6.726664722473927</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>45.71423459433126</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>105.0969227051396</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>63.36835372228757</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>59.62759525031552</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25320,10 +25320,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>65.54986409393081</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>139.9994244361422</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>30.15030327141889</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>32.79125956324884</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>67.07129414993855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>126.7126101431581</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>760602.3747808228</v>
+        <v>760602.3747808227</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>737410.9310912272</v>
+        <v>737410.9310912271</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>737410.9310912271</v>
+        <v>737410.9310912272</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>737410.9310912271</v>
+        <v>737410.9310912272</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>737410.9310912272</v>
+        <v>737410.9310912271</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>737410.9310912272</v>
+        <v>737410.9310912271</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>737410.9310912272</v>
+        <v>737410.9310912271</v>
       </c>
     </row>
     <row r="16">
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846405</v>
       </c>
       <c r="E2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="F2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="G2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="H2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="I2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="J2" t="n">
         <v>686074.6097365053</v>
       </c>
-      <c r="G2" t="n">
-        <v>686074.6097365053</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>686074.6097365058</v>
       </c>
-      <c r="I2" t="n">
-        <v>686074.6097365053</v>
-      </c>
-      <c r="J2" t="n">
-        <v>686074.6097365054</v>
-      </c>
-      <c r="K2" t="n">
-        <v>686074.6097365052</v>
-      </c>
       <c r="L2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="M2" t="n">
-        <v>686074.6097365053</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="N2" t="n">
         <v>686074.6097365057</v>
@@ -26355,7 +26355,7 @@
         <v>686074.6097365055</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911928</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580822</v>
+        <v>390680.0076580769</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606902</v>
+        <v>507909.232060695</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911413</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101855</v>
+        <v>95270.23779101718</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954682</v>
+        <v>132717.9756954694</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,13 +26423,13 @@
         <v>252122.0652631775</v>
       </c>
       <c r="D4" t="n">
-        <v>141668.8507447201</v>
+        <v>141668.8507447215</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680587</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680587</v>
       </c>
       <c r="G4" t="n">
         <v>11776.97621680582</v>
@@ -26438,19 +26438,19 @@
         <v>11776.97621680582</v>
       </c>
       <c r="I4" t="n">
-        <v>11776.97621680578</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
+        <v>11776.97621680586</v>
+      </c>
+      <c r="K4" t="n">
         <v>11776.97621680582</v>
-      </c>
-      <c r="K4" t="n">
-        <v>11776.97621680575</v>
       </c>
       <c r="L4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
-        <v>11776.97621680578</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="N4" t="n">
         <v>11776.97621680582</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567922</v>
+        <v>92902.86757567883</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-297372.3446739956</v>
+        <v>-297372.3446739958</v>
       </c>
       <c r="C6" t="n">
-        <v>382715.6359171972</v>
+        <v>382715.635917197</v>
       </c>
       <c r="D6" t="n">
-        <v>72633.77840615941</v>
+        <v>72633.77840616324</v>
       </c>
       <c r="E6" t="n">
-        <v>65265.87163510257</v>
+        <v>64918.49238074082</v>
       </c>
       <c r="F6" t="n">
-        <v>573175.1036957924</v>
+        <v>572827.7244414354</v>
       </c>
       <c r="G6" t="n">
-        <v>573175.1036957924</v>
+        <v>572827.7244414358</v>
       </c>
       <c r="H6" t="n">
-        <v>573175.1036957928</v>
+        <v>572827.7244414357</v>
       </c>
       <c r="I6" t="n">
-        <v>573175.1036957924</v>
+        <v>572827.7244414357</v>
       </c>
       <c r="J6" t="n">
-        <v>504175.9492766783</v>
+        <v>503828.5700223212</v>
       </c>
       <c r="K6" t="n">
-        <v>573175.1036957925</v>
+        <v>572827.7244414359</v>
       </c>
       <c r="L6" t="n">
-        <v>477904.8659047742</v>
+        <v>477557.4866504185</v>
       </c>
       <c r="M6" t="n">
-        <v>440457.1280003242</v>
+        <v>440109.7487459662</v>
       </c>
       <c r="N6" t="n">
-        <v>573175.1036957927</v>
+        <v>572827.7244414358</v>
       </c>
       <c r="O6" t="n">
-        <v>573175.1036957926</v>
+        <v>572827.7244414357</v>
       </c>
       <c r="P6" t="n">
-        <v>573175.1036957926</v>
+        <v>572827.7244414358</v>
       </c>
     </row>
   </sheetData>
@@ -26694,31 +26694,31 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>3.720839728281323e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.720839728281323e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.720839728281323e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.720839728281323e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.720839728281323e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.877316941125518e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.877316941125518e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4.877316941125518e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.877316941125518e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694781</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627854</v>
+        <v>933.7024595627812</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856991</v>
+        <v>640.140690085694</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26807,13 +26807,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26916,10 +26916,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>3.720839728281323e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.877316941125518e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694781</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933072</v>
+        <v>319.6474457933028</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788883</v>
+        <v>434.2730407788923</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841931</v>
+        <v>376.4268100841878</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139492</v>
+        <v>532.5675980139541</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841932</v>
+        <v>376.4268100841878</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139492</v>
+        <v>532.5675980139541</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>3.720839728281323e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>4.877316941125518e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841931</v>
+        <v>376.4268100841878</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139492</v>
+        <v>532.5675980139541</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>90.96916161917682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>169.3614049543567</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>251.3134900307089</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862876</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>125.656484375968</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>52.89448477700863</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,19 +27505,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.1525249552777</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>26.87764528442395</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27551,16 +27551,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>158.8076133369409</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248086</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888211</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
@@ -27593,16 +27593,16 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117135</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>22.8091183350848</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>187.431034882095</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>101.6246675113629</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
         <v>115.3066195468971</v>
@@ -27675,16 +27675,16 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862871</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769628</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>57.21613438642653</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27706,16 +27706,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,25 +27745,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>165.1142907038438</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27776,16 +27776,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>83.35276456993347</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27824,25 +27824,25 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>22.54475050117135</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>104.4763300640633</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>332.5710787176992</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>312.5764331751975</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425464997</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27952,7 +27952,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.77644916453735</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27991,7 +27991,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>1.776449164517174</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2573199590396</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430993</v>
+        <v>104.8162497430996</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640955</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103388</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>34.76129450540463</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>47.54863008462186</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.041087216435699e-12</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350879</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167917</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658378</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702306</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990947</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736543</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944813</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0868945774202092</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,22 +31199,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582787</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244974</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779067</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
         <v>173.576239384051</v>
@@ -31223,25 +31223,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.7223070791912</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350554</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.73124354871565</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,31 +31278,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31314,7 +31314,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31363,16 +31363,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31381,25 +31381,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885567</v>
+        <v>3.75357772688555</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546682</v>
+        <v>38.44132789546664</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157559</v>
+        <v>144.7098053157553</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972541</v>
+        <v>318.5802175972527</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763203</v>
+        <v>477.4691627763181</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354946</v>
+        <v>592.3427171354919</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359958</v>
+        <v>659.0954050359927</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525095</v>
+        <v>669.7602577525064</v>
       </c>
       <c r="O8" t="n">
-        <v>632.435619230791</v>
+        <v>632.4356192307881</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983035</v>
+        <v>539.7691690983011</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.344166754214</v>
+        <v>405.3441667542122</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864757</v>
+        <v>235.7856768864746</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140494</v>
+        <v>85.53465245140455</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944158</v>
+        <v>16.4312864994415</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508453</v>
+        <v>0.3002862181508439</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436935</v>
+        <v>2.008341139436926</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035145</v>
+        <v>19.39634732035136</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026289</v>
+        <v>69.14683309026258</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079431</v>
+        <v>189.7441951079422</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502177</v>
+        <v>324.3030514502162</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571292</v>
+        <v>436.0654741571273</v>
       </c>
       <c r="M9" t="n">
-        <v>508.867840461718</v>
+        <v>508.8678404617157</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152228</v>
+        <v>522.3360580152205</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519096</v>
+        <v>477.8354464519074</v>
       </c>
       <c r="P9" t="n">
-        <v>383.50507249476</v>
+        <v>383.5050724947582</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463708</v>
+        <v>256.3629847463697</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204792</v>
+        <v>124.6933209204786</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366409</v>
+        <v>37.30405581366392</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133958</v>
+        <v>8.09502415413392</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419036</v>
+        <v>0.1321277065419031</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752564</v>
+        <v>1.683725746752556</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840008</v>
+        <v>14.96985254840001</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415893</v>
+        <v>50.6342251841587</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954062</v>
+        <v>119.0394102954057</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772524</v>
+        <v>195.6183185772515</v>
       </c>
       <c r="L10" t="n">
-        <v>250.324098749013</v>
+        <v>250.3240987490119</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023132</v>
+        <v>263.931664102312</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462357</v>
+        <v>257.6559590462345</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046261</v>
+        <v>237.986981004625</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708736</v>
+        <v>203.6389757708727</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939806</v>
+        <v>140.98907139398</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307435</v>
+        <v>75.70643221307401</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658785</v>
+        <v>29.34274778658772</v>
       </c>
       <c r="T10" t="n">
-        <v>7.19410091794277</v>
+        <v>7.194100917942738</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650358</v>
+        <v>0.09183958618650316</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,40 +31837,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P12" t="n">
-        <v>346.9084613860368</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32083,7 +32083,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32092,16 +32092,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>295.9743940159484</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32311,10 +32311,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32326,7 +32326,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>616.9033572954396</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32490,7 +32490,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236522</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
         <v>593.8732233669223</v>
@@ -32560,19 +32560,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>208.6096528357816</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>359.7096985496632</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>177.7456072667729</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>414.644818552487</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>332.9841464938405</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>526.2989357561996</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>407.217739120397</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33760,16 +33760,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>139.5228722182826</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,34 +34438,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>538.1718564803235</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>169.9530009943068</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217703</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664461</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186564</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441511</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117352</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763041</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823472</v>
+        <v>238.3094620181793</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460656</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="O3" t="n">
-        <v>171.655098309828</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>118.2400000337409</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877692</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34874,10 +34874,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496811</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35035,7 +35035,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>125.9385470877689</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705679</v>
+        <v>137.5343130705664</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313397</v>
+        <v>257.3793117313376</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655073</v>
+        <v>356.5763021655046</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087231</v>
+        <v>428.74917180872</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559185</v>
+        <v>440.3471941559155</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091042</v>
+        <v>402.3374078091014</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430339</v>
+        <v>308.5361733430315</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797645</v>
+        <v>183.0384768797627</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234355</v>
+        <v>20.20013907234249</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127636</v>
+        <v>188.9976037816843</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758587</v>
+        <v>379.2332739216731</v>
       </c>
       <c r="L9" t="n">
-        <v>616.3737911634865</v>
+        <v>297.5110943772531</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396997</v>
+        <v>366.7338065396974</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318895</v>
+        <v>390.9943459318872</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074652</v>
+        <v>335.239202007463</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804297</v>
+        <v>249.530665080428</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.4584983961984</v>
+        <v>326.4584983961973</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873347</v>
+        <v>25.68023017873293</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513695</v>
+        <v>173.3488267513686</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093292</v>
+        <v>277.914124009328</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641538</v>
+        <v>303.5155410641526</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254643</v>
+        <v>301.7881314254631</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186658</v>
+        <v>262.5721089186647</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357671</v>
+        <v>200.9175350357662</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228621</v>
+        <v>54.82702814228558</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P12" t="n">
-        <v>212.9340539717066</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35731,7 +35731,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,16 +35740,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>161.9999866016181</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35974,7 +35974,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>485.5616452121063</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -36138,7 +36138,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683826</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
@@ -36208,19 +36208,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>66.47561891376326</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,22 +36442,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>228.3679864663299</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,22 +36916,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>272.5107846304687</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>199.0097390795103</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>394.9572236728663</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>265.0837051983787</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>8.181160134949316</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>406.8301443969902</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_18_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_18_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2961358.198711353</v>
+        <v>2963118.729014138</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>263.7138800015062</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>161.520684615001</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>212.568965117905</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -749,7 +749,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>92.17472761637525</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -788,10 +788,10 @@
         <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>116.387939231751</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>140.3691758142039</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>194.0434908756789</v>
       </c>
       <c r="W4" t="n">
         <v>263.7138800015062</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015062</v>
+        <v>212.5689651179051</v>
       </c>
       <c r="F5" t="n">
-        <v>219.4450108596164</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>263.7138800015062</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>263.7138800015062</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>109.3170492634408</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1034,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>10.18456372565657</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1062,10 +1062,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>182.0466682725277</v>
+        <v>68.36004337105362</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>98.97272661305203</v>
+        <v>19.29767767576926</v>
       </c>
       <c r="H8" t="n">
         <v>301.0334742203005</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465062</v>
+        <v>65.76608425465079</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348408</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646899</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.8390969161451</v>
+        <v>92.83909691614512</v>
       </c>
       <c r="I9" t="n">
-        <v>18.47335059661515</v>
+        <v>20.24979976115259</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901739</v>
+        <v>134.379115290174</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092543744329</v>
+        <v>224.0328052098885</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1296,10 +1296,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>195.7667673447271</v>
       </c>
       <c r="W10" t="n">
-        <v>238.9743682519691</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1378,10 +1378,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722608</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,16 +1587,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>275.6685478670739</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>204.4247418692619</v>
       </c>
     </row>
     <row r="14">
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.33703994142957</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1897,13 +1897,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2007,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>1.79977260571614</v>
+        <v>105.1820732698679</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2052,10 +2052,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695437</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>51.3656974031032</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>120.6127326838975</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3198,7 +3198,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>3.006892987834117</v>
+        <v>37.41782514683995</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3474,7 +3474,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>115.4764219077138</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3562,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>148.2350264383957</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569544</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>51.36569740310337</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.6661507067968</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="C2" t="n">
-        <v>307.6661507067968</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="D2" t="n">
-        <v>307.6661507067968</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="E2" t="n">
-        <v>307.6661507067968</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F2" t="n">
-        <v>300.7206499575934</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052542</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515906</v>
       </c>
       <c r="M2" t="n">
         <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358414</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4360,22 +4360,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>840.4214638411528</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>840.4214638411528</v>
+        <v>840.1393936243026</v>
       </c>
       <c r="V2" t="n">
-        <v>840.4214638411528</v>
+        <v>840.1393936243026</v>
       </c>
       <c r="W2" t="n">
-        <v>840.4214638411528</v>
+        <v>840.1393936243026</v>
       </c>
       <c r="X2" t="n">
-        <v>840.4214638411528</v>
+        <v>840.1393936243026</v>
       </c>
       <c r="Y2" t="n">
-        <v>574.0438072739748</v>
+        <v>573.7617370571245</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>522.8589224280242</v>
+        <v>750.7407242111801</v>
       </c>
       <c r="C3" t="n">
-        <v>522.8589224280242</v>
+        <v>576.2876949300531</v>
       </c>
       <c r="D3" t="n">
-        <v>373.924512766773</v>
+        <v>427.3532852688019</v>
       </c>
       <c r="E3" t="n">
-        <v>214.6870577613175</v>
+        <v>268.1158302633464</v>
       </c>
       <c r="F3" t="n">
         <v>121.5812722902314</v>
@@ -4418,16 +4418,16 @@
         <v>242.5255548298714</v>
       </c>
       <c r="M3" t="n">
-        <v>478.4519222278689</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N3" t="n">
-        <v>739.52866342936</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560898</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4436,25 +4436,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>887.8833378166546</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>691.0742594480922</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>691.0742594480922</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V3" t="n">
-        <v>691.0742594480922</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W3" t="n">
-        <v>691.0742594480922</v>
+        <v>918.9560612312482</v>
       </c>
       <c r="X3" t="n">
-        <v>691.0742594480922</v>
+        <v>918.9560612312482</v>
       </c>
       <c r="Y3" t="n">
-        <v>691.0742594480922</v>
+        <v>918.9560612312482</v>
       </c>
     </row>
     <row r="4">
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>313.0007960894299</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="C4" t="n">
-        <v>171.2137498124562</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D4" t="n">
         <v>21.0971104001205</v>
@@ -4524,16 +4524,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V4" t="n">
-        <v>800.1710318001379</v>
+        <v>858.8519938689753</v>
       </c>
       <c r="W4" t="n">
-        <v>533.79337523296</v>
+        <v>592.4743373017973</v>
       </c>
       <c r="X4" t="n">
-        <v>533.79337523296</v>
+        <v>592.4743373017973</v>
       </c>
       <c r="Y4" t="n">
-        <v>313.0007960894299</v>
+        <v>371.6817581582671</v>
       </c>
     </row>
     <row r="5">
@@ -4552,13 +4552,13 @@
         <v>522.1002068716687</v>
       </c>
       <c r="E5" t="n">
-        <v>255.7225503044907</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356495</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="G5" t="n">
-        <v>21.0971104001205</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="H5" t="n">
         <v>21.0971104001205</v>
@@ -4567,10 +4567,10 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917587</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052542</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L5" t="n">
         <v>294.5174947515907</v>
@@ -4579,10 +4579,10 @@
         <v>495.5981834030604</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358414</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4603,16 +4603,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
+        <v>1054.855520006025</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1054.855520006025</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1054.855520006025</v>
+      </c>
+      <c r="Y5" t="n">
         <v>788.4778634388467</v>
-      </c>
-      <c r="W5" t="n">
-        <v>788.4778634388467</v>
-      </c>
-      <c r="X5" t="n">
-        <v>522.1002068716687</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>522.1002068716687</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.0971104001205</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C6" t="n">
-        <v>21.0971104001205</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D6" t="n">
-        <v>21.0971104001205</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E6" t="n">
-        <v>21.0971104001205</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
         <v>21.0971104001205</v>
@@ -4682,16 +4682,16 @@
         <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>801.3675279810723</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W6" t="n">
-        <v>547.1301712528707</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X6" t="n">
-        <v>339.2786710473379</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="Y6" t="n">
-        <v>131.518372282384</v>
+        <v>818.4718993411373</v>
       </c>
     </row>
     <row r="7">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>650.177417354891</v>
+        <v>355.3743762745875</v>
       </c>
       <c r="C7" t="n">
-        <v>481.2412344269841</v>
+        <v>186.4381933466805</v>
       </c>
       <c r="D7" t="n">
-        <v>331.1245950146483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="E7" t="n">
-        <v>183.2115014322552</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="F7" t="n">
         <v>36.32155393434482</v>
@@ -4764,13 +4764,13 @@
         <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>870.9699964984211</v>
+        <v>985.8049711463747</v>
       </c>
       <c r="X7" t="n">
-        <v>870.9699964984211</v>
+        <v>757.8154202483573</v>
       </c>
       <c r="Y7" t="n">
-        <v>650.177417354891</v>
+        <v>537.0228411048272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2045.690683786317</v>
+        <v>1965.210836374921</v>
       </c>
       <c r="C8" t="n">
-        <v>1676.728166845905</v>
+        <v>1596.248319434509</v>
       </c>
       <c r="D8" t="n">
-        <v>1318.462468239155</v>
+        <v>1237.982620827758</v>
       </c>
       <c r="E8" t="n">
-        <v>932.6742156409107</v>
+        <v>852.1943682295141</v>
       </c>
       <c r="F8" t="n">
-        <v>521.6883108513032</v>
+        <v>441.2084634399066</v>
       </c>
       <c r="G8" t="n">
-        <v>421.7158597270082</v>
+        <v>421.7158597270083</v>
       </c>
       <c r="H8" t="n">
         <v>117.6416433428663</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685553</v>
+        <v>51.21125520685538</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467166</v>
+        <v>187.3702251467158</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607409</v>
+        <v>442.1757437607395</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045904</v>
+        <v>795.1862829045881</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995223</v>
+        <v>1219.64796299522</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.59168520958</v>
+        <v>1655.591685209575</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.90571894059</v>
+        <v>2053.905718940586</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550191</v>
+        <v>2359.356530550186</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661157</v>
+        <v>2540.564622661151</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342776</v>
+        <v>2560.562760342769</v>
       </c>
       <c r="S8" t="n">
-        <v>2435.830015762129</v>
+        <v>2560.562760342769</v>
       </c>
       <c r="T8" t="n">
-        <v>2435.830015762129</v>
+        <v>2351.810676439042</v>
       </c>
       <c r="U8" t="n">
-        <v>2435.830015762129</v>
+        <v>2351.810676439042</v>
       </c>
       <c r="V8" t="n">
-        <v>2435.830015762129</v>
+        <v>2351.810676439042</v>
       </c>
       <c r="W8" t="n">
-        <v>2435.830015762129</v>
+        <v>2351.810676439042</v>
       </c>
       <c r="X8" t="n">
-        <v>2435.830015762129</v>
+        <v>2351.810676439042</v>
       </c>
       <c r="Y8" t="n">
-        <v>2045.690683786317</v>
+        <v>2351.810676439042</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010709</v>
+        <v>931.3041138965631</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199439</v>
+        <v>756.8510846154361</v>
       </c>
       <c r="D9" t="n">
-        <v>606.1222818586926</v>
+        <v>607.9166749541848</v>
       </c>
       <c r="E9" t="n">
-        <v>446.8848268532371</v>
+        <v>448.6792199487294</v>
       </c>
       <c r="F9" t="n">
-        <v>300.3502688801221</v>
+        <v>302.1446619756144</v>
       </c>
       <c r="G9" t="n">
-        <v>163.6480708763103</v>
+        <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>69.87120530444659</v>
+        <v>71.6655983999388</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685553</v>
+        <v>51.21125520685538</v>
       </c>
       <c r="J9" t="n">
-        <v>238.318882950723</v>
+        <v>113.4887579637179</v>
       </c>
       <c r="K9" t="n">
-        <v>613.7598241331793</v>
+        <v>298.0857543148162</v>
       </c>
       <c r="L9" t="n">
-        <v>908.29580756666</v>
+        <v>592.6217377482963</v>
       </c>
       <c r="M9" t="n">
-        <v>1271.36227604096</v>
+        <v>1208.393778287022</v>
       </c>
       <c r="N9" t="n">
-        <v>1658.446678513529</v>
+        <v>1842.133061471857</v>
       </c>
       <c r="O9" t="n">
-        <v>1990.333488500917</v>
+        <v>2174.019871459245</v>
       </c>
       <c r="P9" t="n">
-        <v>2237.368846930541</v>
+        <v>2421.055229888868</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342776</v>
+        <v>2536.272628442612</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342776</v>
+        <v>2560.562760342769</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251692</v>
+        <v>2424.826280251684</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.81647768534</v>
+        <v>2230.816477685333</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.72632175157</v>
+        <v>2004.520714847062</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519827</v>
+        <v>1769.368606615319</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791626</v>
+        <v>1515.131249887118</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586093</v>
+        <v>1307.279749681585</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821139</v>
+        <v>1099.519450916631</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>220.1474381347624</v>
+        <v>518.1771711294912</v>
       </c>
       <c r="C10" t="n">
-        <v>51.21125520685553</v>
+        <v>349.2409882015842</v>
       </c>
       <c r="D10" t="n">
-        <v>51.21125520685553</v>
+        <v>199.1243487892485</v>
       </c>
       <c r="E10" t="n">
-        <v>51.21125520685553</v>
+        <v>51.21125520685538</v>
       </c>
       <c r="F10" t="n">
-        <v>51.21125520685553</v>
+        <v>51.21125520685538</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685553</v>
+        <v>51.21125520685538</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685553</v>
+        <v>51.21125520685538</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685553</v>
+        <v>51.21125520685538</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380112</v>
+        <v>76.63468308380084</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676561</v>
+        <v>248.2500215676556</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368908</v>
+        <v>523.38500433689</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904018</v>
+        <v>823.8653899904007</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.63564010161</v>
+        <v>1122.635640101609</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931088</v>
+        <v>1382.582027931086</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616497</v>
+        <v>1581.490387616495</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477359</v>
+        <v>1635.769145477357</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477359</v>
+        <v>1635.769145477357</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477359</v>
+        <v>1635.769145477357</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477359</v>
+        <v>1635.769145477357</v>
       </c>
       <c r="U10" t="n">
-        <v>1346.650771972001</v>
+        <v>1635.769145477357</v>
       </c>
       <c r="V10" t="n">
-        <v>1091.966283766114</v>
+        <v>1438.024936038239</v>
       </c>
       <c r="W10" t="n">
-        <v>850.5780330065496</v>
+        <v>1148.607766001278</v>
       </c>
       <c r="X10" t="n">
-        <v>622.5884821085323</v>
+        <v>920.618215103261</v>
       </c>
       <c r="Y10" t="n">
-        <v>401.7959029650021</v>
+        <v>699.8256359597309</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5035,31 +5035,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5068,25 +5068,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793924</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348531</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.672526468518</v>
+        <v>782.841029837709</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797186</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W13" t="n">
-        <v>1338.103121340305</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X13" t="n">
-        <v>1110.113570442288</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y13" t="n">
-        <v>889.3209912987577</v>
+        <v>964.4894946679487</v>
       </c>
     </row>
     <row r="14">
@@ -5272,19 +5272,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5299,25 +5299,25 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5606,7 +5606,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>597.2570777219835</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>282.1478848544703</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5700,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="20">
@@ -5758,13 +5758,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5901,10 +5901,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5983,25 +5983,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6223,28 +6223,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6363,22 +6363,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6466,16 +6466,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,7 +6484,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6548,16 +6548,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2356.04164637206</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>801.6605733532803</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C31" t="n">
-        <v>632.7243904253734</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D31" t="n">
-        <v>632.7243904253734</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G31" t="n">
         <v>317.6151975578602</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X31" t="n">
-        <v>1022.45315249681</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y31" t="n">
-        <v>801.6605733532803</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="32">
@@ -6682,16 +6682,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>577.8620388433919</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C34" t="n">
-        <v>408.925855915485</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D34" t="n">
-        <v>408.925855915485</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
         <v>261.0127623330919</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2443.925817935984</v>
+        <v>2409.167300603654</v>
       </c>
       <c r="S34" t="n">
-        <v>2261.070983590888</v>
+        <v>2226.312466258559</v>
       </c>
       <c r="T34" t="n">
-        <v>2041.469518613829</v>
+        <v>2006.7110012815</v>
       </c>
       <c r="U34" t="n">
-        <v>1752.394291958027</v>
+        <v>1717.635774625697</v>
       </c>
       <c r="V34" t="n">
-        <v>1497.70980375214</v>
+        <v>1462.95128641981</v>
       </c>
       <c r="W34" t="n">
-        <v>1208.292633715179</v>
+        <v>1173.53411638285</v>
       </c>
       <c r="X34" t="n">
-        <v>980.3030828171618</v>
+        <v>945.5445654848324</v>
       </c>
       <c r="Y34" t="n">
-        <v>759.5105036736317</v>
+        <v>724.7519863413023</v>
       </c>
     </row>
     <row r="35">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
         <v>261.0127623330919</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2263.274529420831</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2043.673064443772</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7171,16 +7171,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>801.6605733532803</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>632.7243904253734</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253734</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E40" t="n">
         <v>484.8112968429803</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2230.185029894889</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2010.58356491783</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1721.508338262028</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1721.508338262028</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1432.091168225067</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1204.10161732705</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>983.30903818352</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,31 +7399,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7432,7 +7432,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7551,16 +7551,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7642,34 +7642,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7721,28 +7721,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
   </sheetData>
@@ -8066,10 +8066,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>45.78351343583194</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>51.53815565544051</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127245</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8531,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>192.7716614458158</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>255.2581536004299</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.1463441538058</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348531</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>10.85445046951713</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>14.15991148283285</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>138.4949402405077</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.4949402405078</v>
+        <v>35.11263957635599</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>105.0969227051396</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25086,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>63.36835372228757</v>
+        <v>28.95742156328174</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>65.54986409393081</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>105.0969227051396</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>32.79125956324884</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>166.0397529241849</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>737410.9310912271</v>
+        <v>737410.9310912272</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>737410.9310912272</v>
+        <v>737410.9310912271</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>737410.9310912272</v>
+        <v>737410.9310912271</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>737410.9310912272</v>
+        <v>737410.9310912271</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>737410.9310912272</v>
+        <v>737410.9310912271</v>
       </c>
     </row>
     <row r="11">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>737410.9310912271</v>
+        <v>737410.9310912272</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>697885.5043846407</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846405</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365053</v>
       </c>
       <c r="F2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="G2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="H2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="I2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="J2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="J2" t="n">
-        <v>686074.6097365053</v>
-      </c>
       <c r="K2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="L2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="M2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="N2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="O2" t="n">
         <v>686074.6097365057</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>686074.6097365055</v>
-      </c>
-      <c r="P2" t="n">
-        <v>686074.6097365057</v>
       </c>
     </row>
     <row r="3">
@@ -26371,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580769</v>
+        <v>390680.0076580754</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.232060695</v>
+        <v>507909.2320606967</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911413</v>
+        <v>68999.15441911409</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101718</v>
+        <v>95270.23779101676</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954694</v>
+        <v>132717.9756954699</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,13 +26423,13 @@
         <v>252122.0652631775</v>
       </c>
       <c r="D4" t="n">
-        <v>141668.8507447215</v>
+        <v>141668.850744722</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680587</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680587</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="G4" t="n">
         <v>11776.97621680582</v>
@@ -26441,10 +26441,10 @@
         <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
-        <v>11776.97621680586</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="K4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680578</v>
       </c>
       <c r="L4" t="n">
         <v>11776.97621680582</v>
@@ -26475,7 +26475,7 @@
         <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567883</v>
+        <v>92902.86757567868</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26527,43 +26527,43 @@
         <v>382715.635917197</v>
       </c>
       <c r="D6" t="n">
-        <v>72633.77840616324</v>
+        <v>72633.77840616461</v>
       </c>
       <c r="E6" t="n">
-        <v>64918.49238074082</v>
+        <v>65231.13370966</v>
       </c>
       <c r="F6" t="n">
-        <v>572827.7244414354</v>
+        <v>573140.3657703572</v>
       </c>
       <c r="G6" t="n">
-        <v>572827.7244414358</v>
+        <v>573140.365770357</v>
       </c>
       <c r="H6" t="n">
-        <v>572827.7244414357</v>
+        <v>573140.365770357</v>
       </c>
       <c r="I6" t="n">
-        <v>572827.7244414357</v>
+        <v>573140.3657703571</v>
       </c>
       <c r="J6" t="n">
-        <v>503828.5700223212</v>
+        <v>504141.2113512427</v>
       </c>
       <c r="K6" t="n">
-        <v>572827.7244414359</v>
+        <v>573140.3657703571</v>
       </c>
       <c r="L6" t="n">
-        <v>477557.4866504185</v>
+        <v>477870.12797934</v>
       </c>
       <c r="M6" t="n">
-        <v>440109.7487459662</v>
+        <v>440422.390074887</v>
       </c>
       <c r="N6" t="n">
-        <v>572827.7244414358</v>
+        <v>573140.365770357</v>
       </c>
       <c r="O6" t="n">
-        <v>572827.7244414357</v>
+        <v>573140.3657703571</v>
       </c>
       <c r="P6" t="n">
-        <v>572827.7244414358</v>
+        <v>573140.365770357</v>
       </c>
     </row>
   </sheetData>
@@ -26694,31 +26694,31 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.720839728281323e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.720839728281323e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.720839728281323e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.720839728281323e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.720839728281323e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.877316941125518e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4.877316941125518e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4.877316941125518e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>4.877316941125518e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26743,7 +26743,7 @@
         <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627812</v>
+        <v>933.7024595627801</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,7 +26795,7 @@
         <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>640.140690085694</v>
+        <v>640.1406900856923</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.720839728281323e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.877316941125518e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26965,13 +26965,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933028</v>
+        <v>319.6474457933017</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788923</v>
+        <v>434.2730407788939</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841878</v>
+        <v>376.4268100841861</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139541</v>
+        <v>532.5675980139561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841878</v>
+        <v>376.4268100841861</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139541</v>
+        <v>532.5675980139561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.720839728281323e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>4.877316941125518e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841878</v>
+        <v>376.4268100841861</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139541</v>
+        <v>532.5675980139561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>119.0199616619744</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>251.3134900307089</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>38.57920276037748</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27460,7 +27460,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27469,7 +27469,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>52.89448477700863</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
@@ -27508,10 +27508,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
@@ -27520,7 +27520,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>135.3070439291686</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>26.87764528442395</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27596,7 +27596,7 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>58.09415244814906</v>
       </c>
       <c r="W4" t="n">
         <v>22.8091183350848</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,16 +27624,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707556</v>
+        <v>169.3614049543567</v>
       </c>
       <c r="F5" t="n">
-        <v>187.431034882095</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776178</v>
       </c>
       <c r="I5" t="n">
         <v>115.3066195468971</v>
@@ -27675,16 +27675,16 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>64.03837846862871</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769628</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27694,19 +27694,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57.21613438642653</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
@@ -27754,13 +27754,13 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>195.5884214778209</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27782,10 +27782,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>104.4763300640633</v>
+        <v>218.1629549655374</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>312.5764331751975</v>
+        <v>392.2514821124802</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348409</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.0453666896857</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27952,7 +27952,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.77644916453735</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27988,7 +27988,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.776449164544431</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28016,10 +28016,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640955</v>
+        <v>101.5869591640956</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503845</v>
+        <v>194.6738502503846</v>
       </c>
       <c r="T10" t="n">
         <v>220.7514885103388</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>56.37087597910087</v>
       </c>
       <c r="W10" t="n">
-        <v>47.54863008462186</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.041087216435699e-12</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29511,7 +29511,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>-5.268850791002156e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75357772688555</v>
+        <v>3.753577726885545</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546664</v>
+        <v>38.4413278954666</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157553</v>
+        <v>144.7098053157551</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972527</v>
+        <v>318.5802175972523</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763181</v>
+        <v>477.4691627763175</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354919</v>
+        <v>592.3427171354912</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359927</v>
+        <v>659.0954050359919</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525064</v>
+        <v>669.7602577525056</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307881</v>
+        <v>632.4356192307874</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983011</v>
+        <v>539.7691690983004</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542122</v>
+        <v>405.3441667542117</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864746</v>
+        <v>235.7856768864743</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140455</v>
+        <v>85.53465245140444</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4312864994415</v>
+        <v>16.43128649944148</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508439</v>
+        <v>0.3002862181508436</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436926</v>
+        <v>2.008341139436923</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035136</v>
+        <v>19.39634732035134</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026258</v>
+        <v>69.14683309026249</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079422</v>
+        <v>189.744195107942</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502162</v>
+        <v>324.3030514502158</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571273</v>
+        <v>436.0654741571267</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617157</v>
+        <v>508.867840461715</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152205</v>
+        <v>522.3360580152198</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519074</v>
+        <v>477.8354464519069</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947582</v>
+        <v>383.5050724947578</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463697</v>
+        <v>256.3629847463694</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204786</v>
+        <v>124.6933209204785</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366392</v>
+        <v>37.30405581366388</v>
       </c>
       <c r="T9" t="n">
-        <v>8.09502415413392</v>
+        <v>8.095024154133911</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419031</v>
+        <v>0.1321277065419029</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752556</v>
+        <v>1.683725746752554</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840001</v>
+        <v>14.96985254839999</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6342251841587</v>
+        <v>50.63422518415864</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954057</v>
+        <v>119.0394102954056</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772515</v>
+        <v>195.6183185772512</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490119</v>
+        <v>250.3240987490116</v>
       </c>
       <c r="M10" t="n">
-        <v>263.931664102312</v>
+        <v>263.9316641023117</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462345</v>
+        <v>257.6559590462342</v>
       </c>
       <c r="O10" t="n">
-        <v>237.986981004625</v>
+        <v>237.9869810046247</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708727</v>
+        <v>203.6389757708725</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.98907139398</v>
+        <v>140.9890713939798</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307401</v>
+        <v>75.70643221307391</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658772</v>
+        <v>29.34274778658768</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942738</v>
+        <v>7.194100917942729</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650316</v>
+        <v>0.09183958618650305</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558023</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32326,10 +32326,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -33268,7 +33268,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,10 +33277,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>332.9841464938405</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33900,7 +33900,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175675</v>
@@ -34140,7 +34140,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34450,7 +34450,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,10 +34462,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>169.9530009943068</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34786,10 +34786,10 @@
         <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
-        <v>238.3094620181793</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>263.7138800015062</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
         <v>171.6550983098281</v>
@@ -34798,7 +34798,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>125.9385470877689</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705664</v>
+        <v>137.534313070566</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313376</v>
+        <v>257.379311731337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655046</v>
+        <v>356.5763021655039</v>
       </c>
       <c r="M8" t="n">
-        <v>428.74917180872</v>
+        <v>428.7491718087192</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559155</v>
+        <v>440.3471941559147</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091014</v>
+        <v>402.3374078091007</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430315</v>
+        <v>308.5361733430308</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797627</v>
+        <v>183.0384768797622</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234249</v>
+        <v>20.20013907234221</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>188.9976037816843</v>
+        <v>62.90656844127528</v>
       </c>
       <c r="K9" t="n">
-        <v>379.2332739216731</v>
+        <v>186.4616124758568</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772531</v>
+        <v>297.5110943772526</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396974</v>
+        <v>621.9919601401266</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318872</v>
+        <v>640.1406900856923</v>
       </c>
       <c r="O9" t="n">
-        <v>335.239202007463</v>
+        <v>335.2392020074624</v>
       </c>
       <c r="P9" t="n">
-        <v>249.530665080428</v>
+        <v>249.5306650804275</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.4584983961973</v>
+        <v>116.3812106603478</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.53548676783535</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873293</v>
+        <v>25.68023017873278</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513686</v>
+        <v>173.3488267513684</v>
       </c>
       <c r="L10" t="n">
-        <v>277.914124009328</v>
+        <v>277.9141240093277</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641526</v>
+        <v>303.5155410641523</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254631</v>
+        <v>301.7881314254628</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186647</v>
+        <v>262.5721089186644</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357662</v>
+        <v>200.917535035766</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228558</v>
+        <v>54.82702814228541</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113578</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35974,10 +35974,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36916,7 +36916,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,10 +36925,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>199.0097390795103</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37548,7 +37548,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37788,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -38098,7 +38098,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,10 +38110,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
